--- a/items_data/paper_store.xlsx
+++ b/items_data/paper_store.xlsx
@@ -462,7 +462,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="2:20"/>
@@ -525,26 +525,946 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="57.45" customHeight="1" s="4"/>
-    <row r="3" ht="57.45" customHeight="1" s="4"/>
-    <row r="4" ht="57.45" customHeight="1" s="4"/>
-    <row r="5" ht="23.85" customHeight="1" s="4"/>
-    <row r="6" ht="23.85" customHeight="1" s="4"/>
-    <row r="7" ht="23.85" customHeight="1" s="4"/>
-    <row r="8" ht="57.45" customHeight="1" s="4"/>
-    <row r="9" ht="57.45" customHeight="1" s="4"/>
-    <row r="10" ht="57.45" customHeight="1" s="4"/>
-    <row r="11" ht="12.8" customHeight="1" s="4"/>
-    <row r="12" ht="12.8" customHeight="1" s="4"/>
-    <row r="13" ht="12.8" customHeight="1" s="4"/>
-    <row r="14" ht="12.8" customHeight="1" s="4"/>
-    <row r="15" ht="12.8" customHeight="1" s="4"/>
-    <row r="16" ht="12.8" customHeight="1" s="4"/>
-    <row r="17" ht="12.8" customHeight="1" s="4"/>
-    <row r="18" ht="12.8" customHeight="1" s="4"/>
-    <row r="19" ht="12.8" customHeight="1" s="4"/>
-    <row r="20" ht="12.8" customHeight="1" s="4"/>
-    <row r="21" ht="12.8" customHeight="1" s="4"/>
+    <row r="2" ht="57.45" customHeight="1" s="4">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>Squishmallows Lollipop Rings (Pack of 15)</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Lollipop Rings </t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>12.99</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Pack of 15</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>https://www.thepaperstore.com/p/primc-sqsh-15pk-lollipop-rings/59941500005</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>004692_1000577163_NoColor.jpg.jpg</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>The Paper Store</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="57.45" customHeight="1" s="4">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>Squishmallows Gummy Pal (Assorted)</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Gummy Pal </t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>Assorted</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F3" s="3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G3" s="3" t="inlineStr">
+        <is>
+          <t>https://www.thepaperstore.com/p/primc-sqsh-gummy-char-asst/59941400005</t>
+        </is>
+      </c>
+      <c r="H3" s="3" t="inlineStr">
+        <is>
+          <t>product_main_loading.gif.jpg</t>
+        </is>
+      </c>
+      <c r="I3" s="3" t="inlineStr">
+        <is>
+          <t>The Paper Store</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="57.45" customHeight="1" s="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>Squishmallows Swirl Pops (Pack of 20)</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Swirl Pops </t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>Pack of 20</t>
+        </is>
+      </c>
+      <c r="E4" s="3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F4" s="3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G4" s="3" t="inlineStr">
+        <is>
+          <t>https://www.thepaperstore.com/p/primc-sqsh-20pk-swirl-pops/59941300005</t>
+        </is>
+      </c>
+      <c r="H4" s="3" t="inlineStr">
+        <is>
+          <t>004692_1000577161_NoColor.jpg.jpg</t>
+        </is>
+      </c>
+      <c r="I4" s="3" t="inlineStr">
+        <is>
+          <t>The Paper Store</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="23.85" customHeight="1" s="4">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>Youth Squish Squad Tie Dye Short-Sleeve Tee</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>Youth Squish Squad Tie Dye Short-Sleeve Tee</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>Youth Squish Squad Tie Dye Short-Sleeve Te</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G5" s="3" t="inlineStr">
+        <is>
+          <t>https://www.thepaperstore.com/p/youth-squish-squad-tie-dye-short-sleeve-tee/1000576936</t>
+        </is>
+      </c>
+      <c r="H5" s="3" t="inlineStr">
+        <is>
+          <t>004336_1000576936_NoColor.jpg.jpg</t>
+        </is>
+      </c>
+      <c r="I5" s="3" t="inlineStr">
+        <is>
+          <t>The Paper Store</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="23.85" customHeight="1" s="4">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>Fairy Spring Fun Medium Plush (12 in.)</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fairy Spring Fun Medium Plush </t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>22.99</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>12 in.</t>
+        </is>
+      </c>
+      <c r="E6" s="3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F6" s="3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G6" s="3" t="inlineStr">
+        <is>
+          <t>https://www.thepaperstore.com/p/kell-sq-md-fun-spring-fairy/59525000005</t>
+        </is>
+      </c>
+      <c r="H6" s="3" t="inlineStr">
+        <is>
+          <t>004102_1000573004_NoColor.jpg.jpg</t>
+        </is>
+      </c>
+      <c r="I6" s="3" t="inlineStr">
+        <is>
+          <t>The Paper Store</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="23.85" customHeight="1" s="4">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>Avocado Super Soft Plush Toy (12 in)</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Avocado Super Soft Plush Toy </t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>22.99</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="inlineStr">
+        <is>
+          <t>12 in</t>
+        </is>
+      </c>
+      <c r="E7" s="3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F7" s="3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G7" s="3" t="inlineStr">
+        <is>
+          <t>https://www.thepaperstore.com/p/kell-sq-avocado/56566100005</t>
+        </is>
+      </c>
+      <c r="H7" s="3" t="inlineStr">
+        <is>
+          <t>004102_1000543626_NoColor.jpg.jpg</t>
+        </is>
+      </c>
+      <c r="I7" s="3" t="inlineStr">
+        <is>
+          <t>The Paper Store</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="57.45" customHeight="1" s="4">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>Turtle Plush with Clip (3.5 in.)</t>
+        </is>
+      </c>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Turtle Plush with Clip </t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="inlineStr">
+        <is>
+          <t>3.5 in.</t>
+        </is>
+      </c>
+      <c r="E8" s="3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F8" s="3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G8" s="3" t="inlineStr">
+        <is>
+          <t>https://www.thepaperstore.com/p/kell-sq-clip-turtle/59563800005</t>
+        </is>
+      </c>
+      <c r="H8" s="3" t="inlineStr">
+        <is>
+          <t>004102_1000573392_NoColor.jpg.jpg</t>
+        </is>
+      </c>
+      <c r="I8" s="3" t="inlineStr">
+        <is>
+          <t>The Paper Store</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="57.45" customHeight="1" s="4">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>Elephant Plush with Clip (3.5 in.)</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elephant Plush with Clip </t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="D9" s="3" t="inlineStr">
+        <is>
+          <t>3.5 in.</t>
+        </is>
+      </c>
+      <c r="E9" s="3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F9" s="3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G9" s="3" t="inlineStr">
+        <is>
+          <t>https://www.thepaperstore.com/p/kell-sq-clip-elephant/59563400005</t>
+        </is>
+      </c>
+      <c r="H9" s="3" t="inlineStr">
+        <is>
+          <t>004102_1000573388_NoColor.jpg.jpg</t>
+        </is>
+      </c>
+      <c r="I9" s="3" t="inlineStr">
+        <is>
+          <t>The Paper Store</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="57.45" customHeight="1" s="4">
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>Lion Plush with Clip (3.5 in.)</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lion Plush with Clip </t>
+        </is>
+      </c>
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="D10" s="3" t="inlineStr">
+        <is>
+          <t>3.5 in.</t>
+        </is>
+      </c>
+      <c r="E10" s="3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F10" s="3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G10" s="3" t="inlineStr">
+        <is>
+          <t>https://www.thepaperstore.com/p/kell-sq-clip-lion/59563300005</t>
+        </is>
+      </c>
+      <c r="H10" s="3" t="inlineStr">
+        <is>
+          <t>004102_1000573387_NoColor.jpg.jpg</t>
+        </is>
+      </c>
+      <c r="I10" s="3" t="inlineStr">
+        <is>
+          <t>The Paper Store</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="12.8" customHeight="1" s="4">
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>Tiger Plush with Clip (3.5 in.)</t>
+        </is>
+      </c>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tiger Plush with Clip </t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="D11" s="3" t="inlineStr">
+        <is>
+          <t>3.5 in.</t>
+        </is>
+      </c>
+      <c r="E11" s="3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F11" s="3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G11" s="3" t="inlineStr">
+        <is>
+          <t>https://www.thepaperstore.com/p/kell-sq-clip-tiger/59563600005</t>
+        </is>
+      </c>
+      <c r="H11" s="3" t="inlineStr">
+        <is>
+          <t>004102_1000573390_NoColor.jpg.jpg</t>
+        </is>
+      </c>
+      <c r="I11" s="3" t="inlineStr">
+        <is>
+          <t>The Paper Store</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="12.8" customHeight="1" s="4">
+      <c r="A12" s="3" t="inlineStr">
+        <is>
+          <t>Zebra Plush with Clip (3.5 in.)</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Zebra Plush with Clip </t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="D12" s="3" t="inlineStr">
+        <is>
+          <t>3.5 in.</t>
+        </is>
+      </c>
+      <c r="E12" s="3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F12" s="3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G12" s="3" t="inlineStr">
+        <is>
+          <t>https://www.thepaperstore.com/p/kell-sq-clip-zebra/59563500005</t>
+        </is>
+      </c>
+      <c r="H12" s="3" t="inlineStr">
+        <is>
+          <t>004102_1000573389_NoColor.jpg.jpg</t>
+        </is>
+      </c>
+      <c r="I12" s="3" t="inlineStr">
+        <is>
+          <t>The Paper Store</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="12.8" customHeight="1" s="4">
+      <c r="A13" s="3" t="inlineStr">
+        <is>
+          <t>Sheltie Dog Plush with Clip (3.5 in.)</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sheltie Dog Plush with Clip </t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="D13" s="3" t="inlineStr">
+        <is>
+          <t>3.5 in.</t>
+        </is>
+      </c>
+      <c r="E13" s="3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F13" s="3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G13" s="3" t="inlineStr">
+        <is>
+          <t>https://www.thepaperstore.com/p/kell-sq-clip-dogs-sheltie/59303900005</t>
+        </is>
+      </c>
+      <c r="H13" s="3" t="inlineStr">
+        <is>
+          <t>004102_1000570802_NoColor.jpg.jpg</t>
+        </is>
+      </c>
+      <c r="I13" s="3" t="inlineStr">
+        <is>
+          <t>The Paper Store</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="12.8" customHeight="1" s="4">
+      <c r="A14" s="3" t="inlineStr">
+        <is>
+          <t>German Shepherd Plush with Clip (3.5 in.)</t>
+        </is>
+      </c>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">German Shepherd Plush with Clip </t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="D14" s="3" t="inlineStr">
+        <is>
+          <t>3.5 in.</t>
+        </is>
+      </c>
+      <c r="E14" s="3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F14" s="3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G14" s="3" t="inlineStr">
+        <is>
+          <t>https://www.thepaperstore.com/p/kell-sq-clip-dogs-grmn-shepard/59303700005</t>
+        </is>
+      </c>
+      <c r="H14" s="3" t="inlineStr">
+        <is>
+          <t>004102_1000570800_NoColor.jpg.jpg</t>
+        </is>
+      </c>
+      <c r="I14" s="3" t="inlineStr">
+        <is>
+          <t>The Paper Store</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="12.8" customHeight="1" s="4">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>Schnauzer Plush with Clip (3.5 in.)</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Schnauzer Plush with Clip </t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="D15" s="3" t="inlineStr">
+        <is>
+          <t>3.5 in.</t>
+        </is>
+      </c>
+      <c r="E15" s="3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F15" s="3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G15" s="3" t="inlineStr">
+        <is>
+          <t>https://www.thepaperstore.com/p/kell-sq-clip-dogs-schnauzer-gry/59303600005</t>
+        </is>
+      </c>
+      <c r="H15" s="3" t="inlineStr">
+        <is>
+          <t>004102_1000570799_NoColor.jpg.jpg</t>
+        </is>
+      </c>
+      <c r="I15" s="3" t="inlineStr">
+        <is>
+          <t>The Paper Store</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="12.8" customHeight="1" s="4">
+      <c r="A16" s="3" t="inlineStr">
+        <is>
+          <t>Brown and White Dog Plush with Clip (3.5 in.)</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Brown and White Dog Plush with Clip </t>
+        </is>
+      </c>
+      <c r="C16" s="3" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="D16" s="3" t="inlineStr">
+        <is>
+          <t>3.5 in.</t>
+        </is>
+      </c>
+      <c r="E16" s="3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F16" s="3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G16" s="3" t="inlineStr">
+        <is>
+          <t>https://www.thepaperstore.com/p/kell-sq-clip-dogs-brwn-wht/59303300005</t>
+        </is>
+      </c>
+      <c r="H16" s="3" t="inlineStr">
+        <is>
+          <t>004102_1000570796_NoColor.jpg.jpg</t>
+        </is>
+      </c>
+      <c r="I16" s="3" t="inlineStr">
+        <is>
+          <t>The Paper Store</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="12.8" customHeight="1" s="4">
+      <c r="A17" s="3" t="inlineStr">
+        <is>
+          <t>Rottweiler Plush with Clip (3.5 in.)</t>
+        </is>
+      </c>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rottweiler Plush with Clip </t>
+        </is>
+      </c>
+      <c r="C17" s="3" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="D17" s="3" t="inlineStr">
+        <is>
+          <t>3.5 in.</t>
+        </is>
+      </c>
+      <c r="E17" s="3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F17" s="3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G17" s="3" t="inlineStr">
+        <is>
+          <t>https://www.thepaperstore.com/p/kell-sq-clip-dogs-rottweiler/59303500005</t>
+        </is>
+      </c>
+      <c r="H17" s="3" t="inlineStr">
+        <is>
+          <t>004102_1000570798_NoColor.jpg.jpg</t>
+        </is>
+      </c>
+      <c r="I17" s="3" t="inlineStr">
+        <is>
+          <t>The Paper Store</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="12.8" customHeight="1" s="4">
+      <c r="A18" s="3" t="inlineStr">
+        <is>
+          <t>Llamacorn Summer Fun Plush with Clip (3.5 in.)</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Llamacorn Summer Fun Plush with Clip </t>
+        </is>
+      </c>
+      <c r="C18" s="3" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="D18" s="3" t="inlineStr">
+        <is>
+          <t>3.5 in.</t>
+        </is>
+      </c>
+      <c r="E18" s="3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F18" s="3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G18" s="3" t="inlineStr">
+        <is>
+          <t>https://www.thepaperstore.com/p/kell-sq-clip-summer-fun-llamacorn/59302500005</t>
+        </is>
+      </c>
+      <c r="H18" s="3" t="inlineStr">
+        <is>
+          <t>004102_1000570788_NoColor.jpg.jpg</t>
+        </is>
+      </c>
+      <c r="I18" s="3" t="inlineStr">
+        <is>
+          <t>The Paper Store</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" ht="12.8" customHeight="1" s="4">
+      <c r="A19" s="3" t="inlineStr">
+        <is>
+          <t>Pug Plush with Clip (3.5 in.)</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pug Plush with Clip </t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="D19" s="3" t="inlineStr">
+        <is>
+          <t>3.5 in.</t>
+        </is>
+      </c>
+      <c r="E19" s="3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F19" s="3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G19" s="3" t="inlineStr">
+        <is>
+          <t>https://www.thepaperstore.com/p/kell-sq-clip-dogs-pug/59303800005</t>
+        </is>
+      </c>
+      <c r="H19" s="3" t="inlineStr">
+        <is>
+          <t>004102_1000570801_NoColor.jpg.jpg</t>
+        </is>
+      </c>
+      <c r="I19" s="3" t="inlineStr">
+        <is>
+          <t>The Paper Store</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="12.8" customHeight="1" s="4">
+      <c r="A20" s="3" t="inlineStr">
+        <is>
+          <t>Tie Dye Cat Sleepy Eyes Medium Plush (12 in.)</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tie Dye Cat Sleepy Eyes Medium Plush </t>
+        </is>
+      </c>
+      <c r="C20" s="3" t="inlineStr">
+        <is>
+          <t>22.99</t>
+        </is>
+      </c>
+      <c r="D20" s="3" t="inlineStr">
+        <is>
+          <t>12 in.</t>
+        </is>
+      </c>
+      <c r="E20" s="3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F20" s="3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G20" s="3" t="inlineStr">
+        <is>
+          <t>https://www.thepaperstore.com/p/kell-sq-md-sleepy-eye-mix-cat/59524800005</t>
+        </is>
+      </c>
+      <c r="H20" s="3" t="inlineStr">
+        <is>
+          <t>004102_1000573002_NoColor.jpg.jpg</t>
+        </is>
+      </c>
+      <c r="I20" s="3" t="inlineStr">
+        <is>
+          <t>The Paper Store</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" ht="12.8" customHeight="1" s="4">
+      <c r="A21" s="3" t="inlineStr">
+        <is>
+          <t>Tie Dye Koala Sleepy Eyes Medium Plush (12 in.)</t>
+        </is>
+      </c>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tie Dye Koala Sleepy Eyes Medium Plush </t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="inlineStr">
+        <is>
+          <t>22.99</t>
+        </is>
+      </c>
+      <c r="D21" s="3" t="inlineStr">
+        <is>
+          <t>12 in.</t>
+        </is>
+      </c>
+      <c r="E21" s="3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F21" s="3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G21" s="3" t="inlineStr">
+        <is>
+          <t>https://www.thepaperstore.com/p/kell-sq-md-sleepy-eye-mix-koala/59524600005</t>
+        </is>
+      </c>
+      <c r="H21" s="3" t="inlineStr">
+        <is>
+          <t>004102_1000573000_NoColor.jpg.jpg</t>
+        </is>
+      </c>
+      <c r="I21" s="3" t="inlineStr">
+        <is>
+          <t>The Paper Store</t>
+        </is>
+      </c>
+    </row>
     <row r="22" ht="12.8" customHeight="1" s="4"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>

--- a/items_data/paper_store.xlsx
+++ b/items_data/paper_store.xlsx
@@ -462,7 +462,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="2:20"/>
@@ -1371,100 +1371,8 @@
         </is>
       </c>
     </row>
-    <row r="20" ht="12.8" customHeight="1" s="4">
-      <c r="A20" s="3" t="inlineStr">
-        <is>
-          <t>Tie Dye Cat Sleepy Eyes Medium Plush (12 in.)</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tie Dye Cat Sleepy Eyes Medium Plush </t>
-        </is>
-      </c>
-      <c r="C20" s="3" t="inlineStr">
-        <is>
-          <t>22.99</t>
-        </is>
-      </c>
-      <c r="D20" s="3" t="inlineStr">
-        <is>
-          <t>12 in.</t>
-        </is>
-      </c>
-      <c r="E20" s="3" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="F20" s="3" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G20" s="3" t="inlineStr">
-        <is>
-          <t>https://www.thepaperstore.com/p/kell-sq-md-sleepy-eye-mix-cat/59524800005</t>
-        </is>
-      </c>
-      <c r="H20" s="3" t="inlineStr">
-        <is>
-          <t>004102_1000573002_NoColor.jpg.jpg</t>
-        </is>
-      </c>
-      <c r="I20" s="3" t="inlineStr">
-        <is>
-          <t>The Paper Store</t>
-        </is>
-      </c>
-    </row>
-    <row r="21" ht="12.8" customHeight="1" s="4">
-      <c r="A21" s="3" t="inlineStr">
-        <is>
-          <t>Tie Dye Koala Sleepy Eyes Medium Plush (12 in.)</t>
-        </is>
-      </c>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tie Dye Koala Sleepy Eyes Medium Plush </t>
-        </is>
-      </c>
-      <c r="C21" s="3" t="inlineStr">
-        <is>
-          <t>22.99</t>
-        </is>
-      </c>
-      <c r="D21" s="3" t="inlineStr">
-        <is>
-          <t>12 in.</t>
-        </is>
-      </c>
-      <c r="E21" s="3" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="F21" s="3" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G21" s="3" t="inlineStr">
-        <is>
-          <t>https://www.thepaperstore.com/p/kell-sq-md-sleepy-eye-mix-koala/59524600005</t>
-        </is>
-      </c>
-      <c r="H21" s="3" t="inlineStr">
-        <is>
-          <t>004102_1000573000_NoColor.jpg.jpg</t>
-        </is>
-      </c>
-      <c r="I21" s="3" t="inlineStr">
-        <is>
-          <t>The Paper Store</t>
-        </is>
-      </c>
-    </row>
+    <row r="20" ht="12.8" customHeight="1" s="4"/>
+    <row r="21" ht="12.8" customHeight="1" s="4"/>
     <row r="22" ht="12.8" customHeight="1" s="4"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>

--- a/items_data/paper_store.xlsx
+++ b/items_data/paper_store.xlsx
@@ -462,7 +462,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="2:20"/>
@@ -525,24 +525,852 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="57.45" customHeight="1" s="4"/>
-    <row r="3" ht="57.45" customHeight="1" s="4"/>
-    <row r="4" ht="57.45" customHeight="1" s="4"/>
-    <row r="5" ht="23.85" customHeight="1" s="4"/>
-    <row r="6" ht="23.85" customHeight="1" s="4"/>
-    <row r="7" ht="23.85" customHeight="1" s="4"/>
-    <row r="8" ht="57.45" customHeight="1" s="4"/>
-    <row r="9" ht="57.45" customHeight="1" s="4"/>
-    <row r="10" ht="57.45" customHeight="1" s="4"/>
-    <row r="11" ht="12.8" customHeight="1" s="4"/>
-    <row r="12" ht="12.8" customHeight="1" s="4"/>
-    <row r="13" ht="12.8" customHeight="1" s="4"/>
-    <row r="14" ht="12.8" customHeight="1" s="4"/>
-    <row r="15" ht="12.8" customHeight="1" s="4"/>
-    <row r="16" ht="12.8" customHeight="1" s="4"/>
-    <row r="17" ht="12.8" customHeight="1" s="4"/>
-    <row r="18" ht="12.8" customHeight="1" s="4"/>
-    <row r="19" ht="12.8" customHeight="1" s="4"/>
+    <row r="2" ht="57.45" customHeight="1" s="4">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Squishmallows Lollipop Rings (Pack of 15)</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Lollipop Rings </t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>12.99</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Pack of 15</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>https://www.thepaperstore.com/p/primc-sqsh-15pk-lollipop-rings/59941500005</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>004692_1000577163_NoColor.jpg.jpg</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>The Paper Store</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="57.45" customHeight="1" s="4">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Squishmallows Gummy Pal (Assorted)</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Gummy Pal </t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Assorted</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>https://www.thepaperstore.com/p/primc-sqsh-gummy-char-asst/59941400005</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>product_main_loading.gif.jpg</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>The Paper Store</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="57.45" customHeight="1" s="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Squishmallows Swirl Pops (Pack of 20)</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Swirl Pops </t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Pack of 20</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>https://www.thepaperstore.com/p/primc-sqsh-20pk-swirl-pops/59941300005</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>004692_1000577161_NoColor.jpg.jpg</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>The Paper Store</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="23.85" customHeight="1" s="4">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Youth Squish Squad Tie Dye Short-Sleeve Tee</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Youth Squish Squad Tie Dye Short-Sleeve Tee</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Youth Squish Squad Tie Dye Short-Sleeve Te</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>https://www.thepaperstore.com/p/youth-squish-squad-tie-dye-short-sleeve-tee/1000576936</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>004336_1000576936_NoColor.jpg.jpg</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>The Paper Store</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="23.85" customHeight="1" s="4">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Fairy Spring Fun Medium Plush (12 in.)</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fairy Spring Fun Medium Plush </t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>22.99</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12 in.</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>https://www.thepaperstore.com/p/kell-sq-md-fun-spring-fairy/59525000005</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>004102_1000573004_NoColor.jpg.jpg</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>The Paper Store</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="23.85" customHeight="1" s="4">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Avocado Super Soft Plush Toy (12 in)</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Avocado Super Soft Plush Toy </t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>22.99</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12 in</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>https://www.thepaperstore.com/p/kell-sq-avocado/56566100005</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>004102_1000543626_NoColor.jpg.jpg</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>The Paper Store</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="57.45" customHeight="1" s="4">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Turtle Plush with Clip (3.5 in.)</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Turtle Plush with Clip </t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.5 in.</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>https://www.thepaperstore.com/p/kell-sq-clip-turtle/59563800005</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>004102_1000573392_NoColor.jpg.jpg</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>The Paper Store</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="57.45" customHeight="1" s="4">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Tiger Plush with Clip (3.5 in.)</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tiger Plush with Clip </t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.5 in.</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>https://www.thepaperstore.com/p/kell-sq-clip-tiger/59563600005</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>004102_1000573390_NoColor.jpg.jpg</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>The Paper Store</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="57.45" customHeight="1" s="4">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Zebra Plush with Clip (3.5 in.)</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Zebra Plush with Clip </t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.5 in.</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>https://www.thepaperstore.com/p/kell-sq-clip-zebra/59563500005</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>004102_1000573389_NoColor.jpg.jpg</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>The Paper Store</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="12.8" customHeight="1" s="4">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Elephant Plush with Clip (3.5 in.)</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elephant Plush with Clip </t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.5 in.</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>https://www.thepaperstore.com/p/kell-sq-clip-elephant/59563400005</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>004102_1000573388_NoColor.jpg.jpg</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>The Paper Store</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="12.8" customHeight="1" s="4">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Lion Plush with Clip (3.5 in.)</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lion Plush with Clip </t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.5 in.</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>https://www.thepaperstore.com/p/kell-sq-clip-lion/59563300005</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>004102_1000573387_NoColor.jpg.jpg</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>The Paper Store</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="12.8" customHeight="1" s="4">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Schnauzer Plush with Clip (3.5 in.)</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Schnauzer Plush with Clip </t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.5 in.</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>https://www.thepaperstore.com/p/kell-sq-clip-dogs-schnauzer-gry/59303600005</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>004102_1000570799_NoColor.jpg.jpg</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>The Paper Store</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="12.8" customHeight="1" s="4">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Sheltie Dog Plush with Clip (3.5 in.)</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sheltie Dog Plush with Clip </t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.5 in.</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>https://www.thepaperstore.com/p/kell-sq-clip-dogs-sheltie/59303900005</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>004102_1000570802_NoColor.jpg.jpg</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>The Paper Store</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="12.8" customHeight="1" s="4">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>German Shepherd Plush with Clip (3.5 in.)</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">German Shepherd Plush with Clip </t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.5 in.</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>https://www.thepaperstore.com/p/kell-sq-clip-dogs-grmn-shepard/59303700005</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>004102_1000570800_NoColor.jpg.jpg</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>The Paper Store</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="12.8" customHeight="1" s="4">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Brown and White Dog Plush with Clip (3.5 in.)</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Brown and White Dog Plush with Clip </t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.5 in.</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>https://www.thepaperstore.com/p/kell-sq-clip-dogs-brwn-wht/59303300005</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>004102_1000570796_NoColor.jpg.jpg</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>The Paper Store</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="12.8" customHeight="1" s="4">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Rottweiler Plush with Clip (3.5 in.)</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rottweiler Plush with Clip </t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.5 in.</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>https://www.thepaperstore.com/p/kell-sq-clip-dogs-rottweiler/59303500005</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>004102_1000570798_NoColor.jpg.jpg</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>The Paper Store</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="12.8" customHeight="1" s="4">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Llamacorn Summer Fun Plush with Clip (3.5 in.)</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Llamacorn Summer Fun Plush with Clip </t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.5 in.</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>https://www.thepaperstore.com/p/kell-sq-clip-summer-fun-llamacorn/59302500005</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>004102_1000570788_NoColor.jpg.jpg</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>The Paper Store</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" ht="12.8" customHeight="1" s="4">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Pug Plush with Clip (3.5 in.)</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pug Plush with Clip </t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.5 in.</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>https://www.thepaperstore.com/p/kell-sq-clip-dogs-pug/59303800005</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>004102_1000570801_NoColor.jpg.jpg</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>The Paper Store</t>
+        </is>
+      </c>
+    </row>
     <row r="20" ht="12.8" customHeight="1" s="4"/>
     <row r="21" ht="12.8" customHeight="1" s="4"/>
     <row r="22" ht="12.8" customHeight="1" s="4"/>

--- a/items_data/paper_store.xlsx
+++ b/items_data/paper_store.xlsx
@@ -526,846 +526,846 @@
       </c>
     </row>
     <row r="2" ht="57.45" customHeight="1" s="4">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="3" t="inlineStr">
         <is>
           <t>Squishmallows Lollipop Rings (Pack of 15)</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> Lollipop Rings </t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="3" t="inlineStr">
         <is>
           <t>12.99</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" s="3" t="inlineStr">
         <is>
           <t>Pack of 15</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>https://www.thepaperstore.com/p/primc-sqsh-15pk-lollipop-rings/59941500005</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>004692_1000577163_NoColor.jpg.jpg</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>The Paper Store</t>
         </is>
       </c>
     </row>
     <row r="3" ht="57.45" customHeight="1" s="4">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="3" t="inlineStr">
         <is>
           <t>Squishmallows Gummy Pal (Assorted)</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> Gummy Pal </t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="3" t="inlineStr">
         <is>
           <t>3.99</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" s="3" t="inlineStr">
         <is>
           <t>Assorted</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F3" s="3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G3" s="3" t="inlineStr">
         <is>
           <t>https://www.thepaperstore.com/p/primc-sqsh-gummy-char-asst/59941400005</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="H3" s="3" t="inlineStr">
         <is>
           <t>product_main_loading.gif.jpg</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="I3" s="3" t="inlineStr">
         <is>
           <t>The Paper Store</t>
         </is>
       </c>
     </row>
     <row r="4" ht="57.45" customHeight="1" s="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="3" t="inlineStr">
         <is>
           <t>Squishmallows Swirl Pops (Pack of 20)</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> Swirl Pops </t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" s="3" t="inlineStr">
         <is>
           <t>8.99</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D4" s="3" t="inlineStr">
         <is>
           <t>Pack of 20</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="E4" s="3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F4" s="3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G4" s="3" t="inlineStr">
         <is>
           <t>https://www.thepaperstore.com/p/primc-sqsh-20pk-swirl-pops/59941300005</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="H4" s="3" t="inlineStr">
         <is>
           <t>004692_1000577161_NoColor.jpg.jpg</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="I4" s="3" t="inlineStr">
         <is>
           <t>The Paper Store</t>
         </is>
       </c>
     </row>
     <row r="5" ht="23.85" customHeight="1" s="4">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="3" t="inlineStr">
         <is>
           <t>Youth Squish Squad Tie Dye Short-Sleeve Tee</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" s="3" t="inlineStr">
         <is>
           <t>Youth Squish Squad Tie Dye Short-Sleeve Tee</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" s="3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D5" s="3" t="inlineStr">
         <is>
           <t>Youth Squish Squad Tie Dye Short-Sleeve Te</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G5" s="3" t="inlineStr">
         <is>
           <t>https://www.thepaperstore.com/p/youth-squish-squad-tie-dye-short-sleeve-tee/1000576936</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="H5" s="3" t="inlineStr">
         <is>
           <t>004336_1000576936_NoColor.jpg.jpg</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="I5" s="3" t="inlineStr">
         <is>
           <t>The Paper Store</t>
         </is>
       </c>
     </row>
     <row r="6" ht="23.85" customHeight="1" s="4">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="3" t="inlineStr">
         <is>
           <t>Fairy Spring Fun Medium Plush (12 in.)</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fairy Spring Fun Medium Plush </t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C6" s="3" t="inlineStr">
         <is>
           <t>22.99</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D6" s="3" t="inlineStr">
         <is>
           <t>12 in.</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="E6" s="3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F6" s="3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G6" s="3" t="inlineStr">
         <is>
           <t>https://www.thepaperstore.com/p/kell-sq-md-fun-spring-fairy/59525000005</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="H6" s="3" t="inlineStr">
         <is>
           <t>004102_1000573004_NoColor.jpg.jpg</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="I6" s="3" t="inlineStr">
         <is>
           <t>The Paper Store</t>
         </is>
       </c>
     </row>
     <row r="7" ht="23.85" customHeight="1" s="4">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="3" t="inlineStr">
         <is>
           <t>Avocado Super Soft Plush Toy (12 in)</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">Avocado Super Soft Plush Toy </t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C7" s="3" t="inlineStr">
         <is>
           <t>22.99</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D7" s="3" t="inlineStr">
         <is>
           <t>12 in</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
+      <c r="E7" s="3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F7" s="3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G7" s="3" t="inlineStr">
         <is>
           <t>https://www.thepaperstore.com/p/kell-sq-avocado/56566100005</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="H7" s="3" t="inlineStr">
         <is>
           <t>004102_1000543626_NoColor.jpg.jpg</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="I7" s="3" t="inlineStr">
         <is>
           <t>The Paper Store</t>
         </is>
       </c>
     </row>
     <row r="8" ht="57.45" customHeight="1" s="4">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="3" t="inlineStr">
         <is>
           <t>Turtle Plush with Clip (3.5 in.)</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">Turtle Plush with Clip </t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C8" s="3" t="inlineStr">
         <is>
           <t>5.99</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D8" s="3" t="inlineStr">
         <is>
           <t>3.5 in.</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="E8" s="3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F8" s="3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G8" s="3" t="inlineStr">
         <is>
           <t>https://www.thepaperstore.com/p/kell-sq-clip-turtle/59563800005</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="H8" s="3" t="inlineStr">
         <is>
           <t>004102_1000573392_NoColor.jpg.jpg</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="I8" s="3" t="inlineStr">
         <is>
           <t>The Paper Store</t>
         </is>
       </c>
     </row>
     <row r="9" ht="57.45" customHeight="1" s="4">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="3" t="inlineStr">
         <is>
           <t>Tiger Plush with Clip (3.5 in.)</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">Tiger Plush with Clip </t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C9" s="3" t="inlineStr">
         <is>
           <t>5.99</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D9" s="3" t="inlineStr">
         <is>
           <t>3.5 in.</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
+      <c r="E9" s="3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F9" s="3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G9" s="3" t="inlineStr">
         <is>
           <t>https://www.thepaperstore.com/p/kell-sq-clip-tiger/59563600005</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="H9" s="3" t="inlineStr">
         <is>
           <t>004102_1000573390_NoColor.jpg.jpg</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="I9" s="3" t="inlineStr">
         <is>
           <t>The Paper Store</t>
         </is>
       </c>
     </row>
     <row r="10" ht="57.45" customHeight="1" s="4">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="3" t="inlineStr">
         <is>
           <t>Zebra Plush with Clip (3.5 in.)</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">Zebra Plush with Clip </t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C10" s="3" t="inlineStr">
         <is>
           <t>5.99</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D10" s="3" t="inlineStr">
         <is>
           <t>3.5 in.</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
+      <c r="E10" s="3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F10" s="3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G10" s="3" t="inlineStr">
         <is>
           <t>https://www.thepaperstore.com/p/kell-sq-clip-zebra/59563500005</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="H10" s="3" t="inlineStr">
         <is>
           <t>004102_1000573389_NoColor.jpg.jpg</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="I10" s="3" t="inlineStr">
         <is>
           <t>The Paper Store</t>
         </is>
       </c>
     </row>
     <row r="11" ht="12.8" customHeight="1" s="4">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="3" t="inlineStr">
         <is>
           <t>Elephant Plush with Clip (3.5 in.)</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elephant Plush with Clip </t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C11" s="3" t="inlineStr">
         <is>
           <t>5.99</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D11" s="3" t="inlineStr">
         <is>
           <t>3.5 in.</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
+      <c r="E11" s="3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F11" s="3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G11" s="3" t="inlineStr">
         <is>
           <t>https://www.thepaperstore.com/p/kell-sq-clip-elephant/59563400005</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="H11" s="3" t="inlineStr">
         <is>
           <t>004102_1000573388_NoColor.jpg.jpg</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="I11" s="3" t="inlineStr">
         <is>
           <t>The Paper Store</t>
         </is>
       </c>
     </row>
     <row r="12" ht="12.8" customHeight="1" s="4">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="3" t="inlineStr">
         <is>
           <t>Lion Plush with Clip (3.5 in.)</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">Lion Plush with Clip </t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C12" s="3" t="inlineStr">
         <is>
           <t>5.99</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D12" s="3" t="inlineStr">
         <is>
           <t>3.5 in.</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
+      <c r="E12" s="3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F12" s="3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G12" s="3" t="inlineStr">
         <is>
           <t>https://www.thepaperstore.com/p/kell-sq-clip-lion/59563300005</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="H12" s="3" t="inlineStr">
         <is>
           <t>004102_1000573387_NoColor.jpg.jpg</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="I12" s="3" t="inlineStr">
         <is>
           <t>The Paper Store</t>
         </is>
       </c>
     </row>
     <row r="13" ht="12.8" customHeight="1" s="4">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="3" t="inlineStr">
         <is>
           <t>Schnauzer Plush with Clip (3.5 in.)</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">Schnauzer Plush with Clip </t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C13" s="3" t="inlineStr">
         <is>
           <t>5.99</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D13" s="3" t="inlineStr">
         <is>
           <t>3.5 in.</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
+      <c r="E13" s="3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F13" s="3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G13" s="3" t="inlineStr">
         <is>
           <t>https://www.thepaperstore.com/p/kell-sq-clip-dogs-schnauzer-gry/59303600005</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="H13" s="3" t="inlineStr">
         <is>
           <t>004102_1000570799_NoColor.jpg.jpg</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="I13" s="3" t="inlineStr">
         <is>
           <t>The Paper Store</t>
         </is>
       </c>
     </row>
     <row r="14" ht="12.8" customHeight="1" s="4">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="3" t="inlineStr">
         <is>
           <t>Sheltie Dog Plush with Clip (3.5 in.)</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sheltie Dog Plush with Clip </t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C14" s="3" t="inlineStr">
         <is>
           <t>5.99</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="D14" s="3" t="inlineStr">
         <is>
           <t>3.5 in.</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
+      <c r="E14" s="3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F14" s="3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G14" s="3" t="inlineStr">
         <is>
           <t>https://www.thepaperstore.com/p/kell-sq-clip-dogs-sheltie/59303900005</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="H14" s="3" t="inlineStr">
         <is>
           <t>004102_1000570802_NoColor.jpg.jpg</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="I14" s="3" t="inlineStr">
         <is>
           <t>The Paper Store</t>
         </is>
       </c>
     </row>
     <row r="15" ht="12.8" customHeight="1" s="4">
-      <c r="A15" t="inlineStr">
+      <c r="A15" s="3" t="inlineStr">
         <is>
           <t>German Shepherd Plush with Clip (3.5 in.)</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">German Shepherd Plush with Clip </t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C15" s="3" t="inlineStr">
         <is>
           <t>5.99</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D15" s="3" t="inlineStr">
         <is>
           <t>3.5 in.</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
+      <c r="E15" s="3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F15" s="3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G15" s="3" t="inlineStr">
         <is>
           <t>https://www.thepaperstore.com/p/kell-sq-clip-dogs-grmn-shepard/59303700005</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="H15" s="3" t="inlineStr">
         <is>
           <t>004102_1000570800_NoColor.jpg.jpg</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="I15" s="3" t="inlineStr">
         <is>
           <t>The Paper Store</t>
         </is>
       </c>
     </row>
     <row r="16" ht="12.8" customHeight="1" s="4">
-      <c r="A16" t="inlineStr">
+      <c r="A16" s="3" t="inlineStr">
         <is>
           <t>Brown and White Dog Plush with Clip (3.5 in.)</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">Brown and White Dog Plush with Clip </t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C16" s="3" t="inlineStr">
         <is>
           <t>5.99</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="D16" s="3" t="inlineStr">
         <is>
           <t>3.5 in.</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
+      <c r="E16" s="3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F16" s="3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G16" s="3" t="inlineStr">
         <is>
           <t>https://www.thepaperstore.com/p/kell-sq-clip-dogs-brwn-wht/59303300005</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="H16" s="3" t="inlineStr">
         <is>
           <t>004102_1000570796_NoColor.jpg.jpg</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="I16" s="3" t="inlineStr">
         <is>
           <t>The Paper Store</t>
         </is>
       </c>
     </row>
     <row r="17" ht="12.8" customHeight="1" s="4">
-      <c r="A17" t="inlineStr">
+      <c r="A17" s="3" t="inlineStr">
         <is>
           <t>Rottweiler Plush with Clip (3.5 in.)</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">Rottweiler Plush with Clip </t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C17" s="3" t="inlineStr">
         <is>
           <t>5.99</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="D17" s="3" t="inlineStr">
         <is>
           <t>3.5 in.</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
+      <c r="E17" s="3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F17" s="3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G17" s="3" t="inlineStr">
         <is>
           <t>https://www.thepaperstore.com/p/kell-sq-clip-dogs-rottweiler/59303500005</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="H17" s="3" t="inlineStr">
         <is>
           <t>004102_1000570798_NoColor.jpg.jpg</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="I17" s="3" t="inlineStr">
         <is>
           <t>The Paper Store</t>
         </is>
       </c>
     </row>
     <row r="18" ht="12.8" customHeight="1" s="4">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="3" t="inlineStr">
         <is>
           <t>Llamacorn Summer Fun Plush with Clip (3.5 in.)</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">Llamacorn Summer Fun Plush with Clip </t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C18" s="3" t="inlineStr">
         <is>
           <t>5.99</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="D18" s="3" t="inlineStr">
         <is>
           <t>3.5 in.</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
+      <c r="E18" s="3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F18" s="3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G18" s="3" t="inlineStr">
         <is>
           <t>https://www.thepaperstore.com/p/kell-sq-clip-summer-fun-llamacorn/59302500005</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="H18" s="3" t="inlineStr">
         <is>
           <t>004102_1000570788_NoColor.jpg.jpg</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="I18" s="3" t="inlineStr">
         <is>
           <t>The Paper Store</t>
         </is>
       </c>
     </row>
     <row r="19" ht="12.8" customHeight="1" s="4">
-      <c r="A19" t="inlineStr">
+      <c r="A19" s="3" t="inlineStr">
         <is>
           <t>Pug Plush with Clip (3.5 in.)</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">Pug Plush with Clip </t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C19" s="3" t="inlineStr">
         <is>
           <t>5.99</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="D19" s="3" t="inlineStr">
         <is>
           <t>3.5 in.</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
+      <c r="E19" s="3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F19" s="3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G19" s="3" t="inlineStr">
         <is>
           <t>https://www.thepaperstore.com/p/kell-sq-clip-dogs-pug/59303800005</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="H19" s="3" t="inlineStr">
         <is>
           <t>004102_1000570801_NoColor.jpg.jpg</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
+      <c r="I19" s="3" t="inlineStr">
         <is>
           <t>The Paper Store</t>
         </is>
